--- a/results/[16_expiring_support_res]_#_fix_cost.xlsx
+++ b/results/[16_expiring_support_res]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15.22754626394446</v>
+        <v>726.0855929159379</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.83182341659068</v>
+        <v>20248.23775137067</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.40173279590782</v>
+        <v>5667.147998863284</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>87.11913758446077</v>
+        <v>11319.74679992575</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40690.0475060112</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7416.763997874001</v>
       </c>
       <c r="N2" t="n">
-        <v>14.88666415684889</v>
+        <v>4971.633266734775</v>
       </c>
       <c r="O2" t="n">
-        <v>21.17242849500687</v>
+        <v>4901.543969525117</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.41471465291126</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>40.6455400553009</v>
+        <v>2910.312293597376</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>147.1041346930165</v>
+        <v>32194.33633015031</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.40173279590782</v>
+        <v>5667.147998863284</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>249.4927753606813</v>
+        <v>25955.38973957134</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>46019.88203863942</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>12214.33499778223</v>
       </c>
       <c r="N2" t="n">
-        <v>39.83646811014152</v>
+        <v>6346.065594672798</v>
       </c>
       <c r="O2" t="n">
-        <v>42.66985391533305</v>
+        <v>6820.917285593926</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32.65615070816873</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>96.87806604492803</v>
+        <v>5121.633936870874</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>379.7327327550551</v>
+        <v>43659.88035721661</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.40173279590782</v>
+        <v>5667.147998863284</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>593.4828485173317</v>
+        <v>41341.99835421226</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>46019.88203863942</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>16678.1579399765</v>
       </c>
       <c r="N2" t="n">
-        <v>108.4104550448685</v>
+        <v>10355.64233412764</v>
       </c>
       <c r="O2" t="n">
-        <v>93.8823059072139</v>
+        <v>9956.830726182561</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32.65615070816873</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>96.87806604492803</v>
+        <v>5121.633936870874</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>379.7327327550551</v>
+        <v>43659.88035721661</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.40173279590782</v>
+        <v>5667.147998863284</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>593.4828485173317</v>
+        <v>41341.99835421226</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>46019.88203863942</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>16678.1579399765</v>
       </c>
       <c r="N2" t="n">
-        <v>108.4104550448685</v>
+        <v>10473.20170275345</v>
       </c>
       <c r="O2" t="n">
-        <v>97.56135635421612</v>
+        <v>9956.830726182561</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>41.96788846537058</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>96.87806604492803</v>
+        <v>5121.633936870874</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>379.7327327550551</v>
+        <v>43659.88035721661</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.40173279590782</v>
+        <v>5667.147998863284</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>593.4828485173317</v>
+        <v>41341.99835421226</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>46019.88203863942</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>16678.1579399765</v>
       </c>
       <c r="N2" t="n">
-        <v>108.4104550448685</v>
+        <v>10922.41905690639</v>
       </c>
       <c r="O2" t="n">
-        <v>100.688730468595</v>
+        <v>12033.78963062142</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>41.96788846537058</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>96.87806604492803</v>
+        <v>5121.633936870874</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>379.7327327550551</v>
+        <v>43659.88035721661</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.40173279590782</v>
+        <v>5667.147998863284</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>593.4828485173317</v>
+        <v>41341.99835421226</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>46019.88203863942</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>16678.1579399765</v>
       </c>
       <c r="N2" t="n">
-        <v>108.4104550448685</v>
+        <v>10922.41905690639</v>
       </c>
       <c r="O2" t="n">
-        <v>100.688730468595</v>
+        <v>12033.78963062142</v>
       </c>
     </row>
   </sheetData>

--- a/results/[16_expiring_support_res]_#_fix_cost.xlsx
+++ b/results/[16_expiring_support_res]_#_fix_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>136.19250975309</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>723.4276304389045</v>
+        <v>487.6512737957041</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9562.844283880468</v>
+        <v>21227.96285102097</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5667.147998863378</v>
+        <v>5667.147998863284</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>14263.74751862538</v>
+        <v>10965.327140292</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15140.8331051076</v>
+        <v>42857.36569267786</v>
       </c>
       <c r="M2" t="n">
-        <v>5815.789137374773</v>
+        <v>8034.1746988965</v>
       </c>
       <c r="N2" t="n">
-        <v>4013.237005877716</v>
+        <v>4555.555118045267</v>
       </c>
       <c r="O2" t="n">
-        <v>2513.59091681292</v>
+        <v>5098.967661274243</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6109.969797042453</v>
+        <v>889.3010627692065</v>
       </c>
       <c r="B2" t="n">
-        <v>723.4276304389045</v>
+        <v>3966.462619977226</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77605.33607524695</v>
+        <v>42720.18362305129</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5667.147998863378</v>
+        <v>5667.147998863284</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>75008.22664478094</v>
+        <v>33883.67254157657</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119573.3109871563</v>
+        <v>52955.41585787696</v>
       </c>
       <c r="M2" t="n">
-        <v>46263.08673608858</v>
+        <v>17240.71739651479</v>
       </c>
       <c r="N2" t="n">
-        <v>21008.70905945871</v>
+        <v>9549.220658140304</v>
       </c>
       <c r="O2" t="n">
-        <v>18406.35379728644</v>
+        <v>9129.462057971876</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6109.969797042453</v>
+        <v>889.3010627692065</v>
       </c>
       <c r="B2" t="n">
-        <v>723.4276304389045</v>
+        <v>3966.462619977226</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77605.33607524695</v>
+        <v>42720.18362305129</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5667.147998863378</v>
+        <v>5667.147998863284</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>75008.22664478094</v>
+        <v>33883.67254157657</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119573.3109871563</v>
+        <v>52955.41585787696</v>
       </c>
       <c r="M2" t="n">
-        <v>46263.08673608858</v>
+        <v>17240.71739651479</v>
       </c>
       <c r="N2" t="n">
-        <v>21008.70905945871</v>
+        <v>9549.220658140304</v>
       </c>
       <c r="O2" t="n">
-        <v>18406.35379728644</v>
+        <v>9129.462057971876</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6109.969797042453</v>
+        <v>889.3010627692065</v>
       </c>
       <c r="B2" t="n">
-        <v>723.4276304389045</v>
+        <v>3966.462619977226</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77605.33607524695</v>
+        <v>42720.18362305129</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5667.147998863378</v>
+        <v>5667.147998863284</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>75008.22664478094</v>
+        <v>33883.67254157657</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119573.3109871563</v>
+        <v>52955.41585787696</v>
       </c>
       <c r="M2" t="n">
-        <v>46263.08673608858</v>
+        <v>17240.71739651479</v>
       </c>
       <c r="N2" t="n">
-        <v>21008.70905945871</v>
+        <v>9549.220658140304</v>
       </c>
       <c r="O2" t="n">
-        <v>18406.35379728644</v>
+        <v>9129.462057971876</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6109.969797042453</v>
+        <v>889.3010627692065</v>
       </c>
       <c r="B2" t="n">
-        <v>723.4276304389045</v>
+        <v>3966.462619977226</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77605.33607524695</v>
+        <v>42720.18362305129</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5667.147998863378</v>
+        <v>5667.147998863284</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>75008.22664478094</v>
+        <v>33883.67254157657</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119573.3109871563</v>
+        <v>52955.41585787696</v>
       </c>
       <c r="M2" t="n">
-        <v>46263.08673608858</v>
+        <v>17240.71739651479</v>
       </c>
       <c r="N2" t="n">
-        <v>21008.70905945871</v>
+        <v>9549.220658140304</v>
       </c>
       <c r="O2" t="n">
-        <v>18406.35379728644</v>
+        <v>9129.462057971876</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6109.969797042453</v>
+        <v>889.3010627692065</v>
       </c>
       <c r="B2" t="n">
-        <v>723.4276304389045</v>
+        <v>3966.462619977226</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77605.33607524695</v>
+        <v>42720.18362305129</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5667.147998863378</v>
+        <v>5667.147998863284</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>75008.22664478094</v>
+        <v>33883.67254157657</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119573.3109871563</v>
+        <v>52955.41585787696</v>
       </c>
       <c r="M2" t="n">
-        <v>46263.08673608858</v>
+        <v>17240.71739651479</v>
       </c>
       <c r="N2" t="n">
-        <v>21008.70905945871</v>
+        <v>9549.220658140304</v>
       </c>
       <c r="O2" t="n">
-        <v>18406.35379728644</v>
+        <v>9129.462057971876</v>
       </c>
     </row>
   </sheetData>

--- a/results/[16_expiring_support_res]_#_fix_cost.xlsx
+++ b/results/[16_expiring_support_res]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>487.6512737957041</v>
+        <v>545.7008988199987</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>21227.96285102097</v>
+        <v>21271.60964344695</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>10965.327140292</v>
+        <v>10981.098647904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>42857.36569267786</v>
+        <v>42839.69549276341</v>
       </c>
       <c r="M2" t="n">
-        <v>8034.1746988965</v>
+        <v>8019.132604175002</v>
       </c>
       <c r="N2" t="n">
-        <v>4555.555118045267</v>
+        <v>4536.424898579853</v>
       </c>
       <c r="O2" t="n">
-        <v>5098.967661274243</v>
+        <v>5082.110035902254</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>889.3010627692065</v>
+        <v>883.0954041229934</v>
       </c>
       <c r="B2" t="n">
-        <v>3966.462619977226</v>
+        <v>4582.57765438246</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42720.18362305129</v>
+        <v>50104.2345376395</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>33883.67254157657</v>
+        <v>37467.9321740052</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52955.41585787696</v>
+        <v>64560.9394462146</v>
       </c>
       <c r="M2" t="n">
-        <v>17240.71739651479</v>
+        <v>20366.03949924198</v>
       </c>
       <c r="N2" t="n">
-        <v>9549.220658140304</v>
+        <v>11003.6745215972</v>
       </c>
       <c r="O2" t="n">
-        <v>9129.462057971876</v>
+        <v>10532.83682572548</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>889.3010627692065</v>
+        <v>883.0954041229934</v>
       </c>
       <c r="B2" t="n">
-        <v>3966.462619977226</v>
+        <v>4582.57765438246</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42720.18362305129</v>
+        <v>50104.2345376395</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>33883.67254157657</v>
+        <v>37467.9321740052</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52955.41585787696</v>
+        <v>64560.9394462146</v>
       </c>
       <c r="M2" t="n">
-        <v>17240.71739651479</v>
+        <v>20366.03949924198</v>
       </c>
       <c r="N2" t="n">
-        <v>9549.220658140304</v>
+        <v>11003.6745215972</v>
       </c>
       <c r="O2" t="n">
-        <v>9129.462057971876</v>
+        <v>10532.83682572548</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>889.3010627692065</v>
+        <v>883.0954041229934</v>
       </c>
       <c r="B2" t="n">
-        <v>3966.462619977226</v>
+        <v>4582.57765438246</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42720.18362305129</v>
+        <v>50104.2345376395</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>33883.67254157657</v>
+        <v>37467.9321740052</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52955.41585787696</v>
+        <v>64560.9394462146</v>
       </c>
       <c r="M2" t="n">
-        <v>17240.71739651479</v>
+        <v>20366.03949924198</v>
       </c>
       <c r="N2" t="n">
-        <v>9549.220658140304</v>
+        <v>11003.6745215972</v>
       </c>
       <c r="O2" t="n">
-        <v>9129.462057971876</v>
+        <v>10532.83682572548</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>889.3010627692065</v>
+        <v>883.0954041229934</v>
       </c>
       <c r="B2" t="n">
-        <v>3966.462619977226</v>
+        <v>4582.57765438246</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42720.18362305129</v>
+        <v>50104.2345376395</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>33883.67254157657</v>
+        <v>37467.9321740052</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52955.41585787696</v>
+        <v>64560.9394462146</v>
       </c>
       <c r="M2" t="n">
-        <v>17240.71739651479</v>
+        <v>20366.03949924198</v>
       </c>
       <c r="N2" t="n">
-        <v>9549.220658140304</v>
+        <v>11003.6745215972</v>
       </c>
       <c r="O2" t="n">
-        <v>9129.462057971876</v>
+        <v>10532.83682572548</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>889.3010627692065</v>
+        <v>883.0954041229934</v>
       </c>
       <c r="B2" t="n">
-        <v>3966.462619977226</v>
+        <v>4582.57765438246</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42720.18362305129</v>
+        <v>50104.2345376395</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>33883.67254157657</v>
+        <v>37467.9321740052</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52955.41585787696</v>
+        <v>64560.9394462146</v>
       </c>
       <c r="M2" t="n">
-        <v>17240.71739651479</v>
+        <v>20366.03949924198</v>
       </c>
       <c r="N2" t="n">
-        <v>9549.220658140304</v>
+        <v>11003.6745215972</v>
       </c>
       <c r="O2" t="n">
-        <v>9129.462057971876</v>
+        <v>10532.83682572548</v>
       </c>
     </row>
   </sheetData>

--- a/results/[16_expiring_support_res]_#_fix_cost.xlsx
+++ b/results/[16_expiring_support_res]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>726.0855929159379</v>
+        <v>681.7676493320005</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20248.23775137067</v>
+        <v>20287.66317618639</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>11319.74679992575</v>
+        <v>11322.696948346</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40690.0475060112</v>
+        <v>40717.1573684766</v>
       </c>
       <c r="M2" t="n">
-        <v>7416.763997874001</v>
+        <v>7413.4115776105</v>
       </c>
       <c r="N2" t="n">
-        <v>4971.633266734775</v>
+        <v>5030.117123085909</v>
       </c>
       <c r="O2" t="n">
-        <v>4901.543969525117</v>
+        <v>4892.012299288745</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2910.312293597376</v>
+        <v>3998.79212449002</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>32194.33633015031</v>
+        <v>39274.23912147338</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>25955.38973957134</v>
+        <v>30952.52893051627</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46019.88203863942</v>
+        <v>56191.96522533072</v>
       </c>
       <c r="M2" t="n">
-        <v>12214.33499778223</v>
+        <v>15388.9961629327</v>
       </c>
       <c r="N2" t="n">
-        <v>6346.065594672798</v>
+        <v>7449.833478787734</v>
       </c>
       <c r="O2" t="n">
-        <v>6820.917285593926</v>
+        <v>8459.289075669971</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>5121.633936870874</v>
+        <v>6313.12160973443</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>43659.88035721661</v>
+        <v>50465.92318872747</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41341.99835421226</v>
+        <v>45991.05621758628</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46019.88203863942</v>
+        <v>56191.96522533072</v>
       </c>
       <c r="M2" t="n">
-        <v>16678.1579399765</v>
+        <v>18869.3373667282</v>
       </c>
       <c r="N2" t="n">
-        <v>10355.64233412764</v>
+        <v>11987.77381092391</v>
       </c>
       <c r="O2" t="n">
-        <v>9956.830726182561</v>
+        <v>11157.28118474881</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>5121.633936870874</v>
+        <v>6313.12160973443</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>43659.88035721661</v>
+        <v>50465.92318872747</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41341.99835421226</v>
+        <v>45991.05621758628</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46019.88203863942</v>
+        <v>56191.96522533072</v>
       </c>
       <c r="M2" t="n">
-        <v>16678.1579399765</v>
+        <v>18869.3373667282</v>
       </c>
       <c r="N2" t="n">
-        <v>10473.20170275345</v>
+        <v>12092.18250713501</v>
       </c>
       <c r="O2" t="n">
-        <v>9956.830726182561</v>
+        <v>11157.28118474881</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>5121.633936870874</v>
+        <v>6313.12160973443</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>43659.88035721661</v>
+        <v>50465.92318872747</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41341.99835421226</v>
+        <v>45991.05621758628</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46019.88203863942</v>
+        <v>56191.96522533072</v>
       </c>
       <c r="M2" t="n">
-        <v>16678.1579399765</v>
+        <v>18869.3373667282</v>
       </c>
       <c r="N2" t="n">
-        <v>10922.41905690639</v>
+        <v>12627.69369170892</v>
       </c>
       <c r="O2" t="n">
-        <v>12033.78963062142</v>
+        <v>13492.74717109747</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>5121.633936870874</v>
+        <v>6313.12160973443</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>43659.88035721661</v>
+        <v>50465.92318872747</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41341.99835421226</v>
+        <v>45991.05621758628</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46019.88203863942</v>
+        <v>56191.96522533072</v>
       </c>
       <c r="M2" t="n">
-        <v>16678.1579399765</v>
+        <v>18869.3373667282</v>
       </c>
       <c r="N2" t="n">
-        <v>10922.41905690639</v>
+        <v>12627.69369170892</v>
       </c>
       <c r="O2" t="n">
-        <v>12033.78963062142</v>
+        <v>13492.74717109747</v>
       </c>
     </row>
   </sheetData>

--- a/results/[16_expiring_support_res]_#_fix_cost.xlsx
+++ b/results/[16_expiring_support_res]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>136.19250975309</v>
+        <v>2276.609418075097</v>
       </c>
       <c r="B2" t="n">
-        <v>723.4276304389045</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>37868.01067536479</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9562.844283880468</v>
+        <v>202806.8080011294</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5785.128911090886</v>
       </c>
       <c r="G2" t="n">
-        <v>5667.147998863378</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1940.59546141152</v>
       </c>
       <c r="I2" t="n">
-        <v>14263.74751862538</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15140.8331051076</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5815.789137374773</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4013.237005877716</v>
+        <v>1276.743415676676</v>
       </c>
       <c r="O2" t="n">
-        <v>2513.59091681292</v>
+        <v>1265.77112515725</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6109.969797042453</v>
+        <v>13539.60804101515</v>
       </c>
       <c r="B2" t="n">
-        <v>723.4276304389045</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>222509.2947290669</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77605.33607524695</v>
+        <v>202806.8080011294</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13425.16262068724</v>
       </c>
       <c r="G2" t="n">
-        <v>5667.147998863378</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8333.250449478299</v>
       </c>
       <c r="I2" t="n">
-        <v>75008.22664478094</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119573.3109871563</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46263.08673608858</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>21008.70905945871</v>
+        <v>10719.45954832789</v>
       </c>
       <c r="O2" t="n">
-        <v>18406.35379728644</v>
+        <v>6864.366829952116</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6109.969797042453</v>
+        <v>13539.60804101515</v>
       </c>
       <c r="B2" t="n">
-        <v>723.4276304389045</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>222509.2947290669</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77605.33607524695</v>
+        <v>202806.8080011294</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13425.16262068724</v>
       </c>
       <c r="G2" t="n">
-        <v>5667.147998863378</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8333.250449478299</v>
       </c>
       <c r="I2" t="n">
-        <v>75008.22664478094</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119573.3109871563</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46263.08673608858</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>21008.70905945871</v>
+        <v>10719.45954832789</v>
       </c>
       <c r="O2" t="n">
-        <v>18406.35379728644</v>
+        <v>6864.366829952116</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6109.969797042453</v>
+        <v>13539.60804101515</v>
       </c>
       <c r="B2" t="n">
-        <v>723.4276304389045</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>222509.2947290669</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77605.33607524695</v>
+        <v>202806.8080011294</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13425.16262068724</v>
       </c>
       <c r="G2" t="n">
-        <v>5667.147998863378</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8333.250449478299</v>
       </c>
       <c r="I2" t="n">
-        <v>75008.22664478094</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119573.3109871563</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46263.08673608858</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>21008.70905945871</v>
+        <v>10719.45954832789</v>
       </c>
       <c r="O2" t="n">
-        <v>18406.35379728644</v>
+        <v>6864.366829952116</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6109.969797042453</v>
+        <v>13539.60804101515</v>
       </c>
       <c r="B2" t="n">
-        <v>723.4276304389045</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>222509.2947290669</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77605.33607524695</v>
+        <v>202806.8080011294</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13425.16262068724</v>
       </c>
       <c r="G2" t="n">
-        <v>5667.147998863378</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8333.250449478299</v>
       </c>
       <c r="I2" t="n">
-        <v>75008.22664478094</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119573.3109871563</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46263.08673608858</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>21008.70905945871</v>
+        <v>10719.45954832789</v>
       </c>
       <c r="O2" t="n">
-        <v>18406.35379728644</v>
+        <v>6864.366829952116</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6109.969797042453</v>
+        <v>13539.60804101515</v>
       </c>
       <c r="B2" t="n">
-        <v>723.4276304389045</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>222509.2947290669</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77605.33607524695</v>
+        <v>202806.8080011294</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13425.16262068724</v>
       </c>
       <c r="G2" t="n">
-        <v>5667.147998863378</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8333.250449478299</v>
       </c>
       <c r="I2" t="n">
-        <v>75008.22664478094</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119573.3109871563</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46263.08673608858</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>21008.70905945871</v>
+        <v>10719.45954832789</v>
       </c>
       <c r="O2" t="n">
-        <v>18406.35379728644</v>
+        <v>6864.366829952116</v>
       </c>
     </row>
   </sheetData>

--- a/results/[16_expiring_support_res]_#_fix_cost.xlsx
+++ b/results/[16_expiring_support_res]_#_fix_cost.xlsx
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5667.147998863284</v>
+        <v>5667.147998863242</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>8019.132604175002</v>
       </c>
       <c r="N2" t="n">
-        <v>4536.424898579853</v>
+        <v>4536.424898579866</v>
       </c>
       <c r="O2" t="n">
         <v>5082.110035902254</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>883.0954041229934</v>
+        <v>883.0954041229933</v>
       </c>
       <c r="B2" t="n">
         <v>4582.57765438246</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5667.147998863284</v>
+        <v>5667.147998863242</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>20366.03949924198</v>
       </c>
       <c r="N2" t="n">
-        <v>11003.6745215972</v>
+        <v>11003.67452159723</v>
       </c>
       <c r="O2" t="n">
         <v>10532.83682572548</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>883.0954041229934</v>
+        <v>883.0954041229933</v>
       </c>
       <c r="B2" t="n">
         <v>4582.57765438246</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5667.147998863284</v>
+        <v>5667.147998863242</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>20366.03949924198</v>
       </c>
       <c r="N2" t="n">
-        <v>11003.6745215972</v>
+        <v>11003.67452159723</v>
       </c>
       <c r="O2" t="n">
         <v>10532.83682572548</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>883.0954041229934</v>
+        <v>883.0954041229933</v>
       </c>
       <c r="B2" t="n">
         <v>4582.57765438246</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5667.147998863284</v>
+        <v>5667.147998863242</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>20366.03949924198</v>
       </c>
       <c r="N2" t="n">
-        <v>11003.6745215972</v>
+        <v>11003.67452159723</v>
       </c>
       <c r="O2" t="n">
         <v>10532.83682572548</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>883.0954041229934</v>
+        <v>883.0954041229933</v>
       </c>
       <c r="B2" t="n">
         <v>4582.57765438246</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5667.147998863284</v>
+        <v>5667.147998863242</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>20366.03949924198</v>
       </c>
       <c r="N2" t="n">
-        <v>11003.6745215972</v>
+        <v>11003.67452159723</v>
       </c>
       <c r="O2" t="n">
         <v>10532.83682572548</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>883.0954041229934</v>
+        <v>883.0954041229933</v>
       </c>
       <c r="B2" t="n">
         <v>4582.57765438246</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5667.147998863284</v>
+        <v>5667.147998863242</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>20366.03949924198</v>
       </c>
       <c r="N2" t="n">
-        <v>11003.6745215972</v>
+        <v>11003.67452159723</v>
       </c>
       <c r="O2" t="n">
         <v>10532.83682572548</v>

--- a/results/[16_expiring_support_res]_#_fix_cost.xlsx
+++ b/results/[16_expiring_support_res]_#_fix_cost.xlsx
@@ -556,10 +556,10 @@
         <v>7413.4115776105</v>
       </c>
       <c r="N2" t="n">
-        <v>5030.117123085909</v>
+        <v>5030.117123085906</v>
       </c>
       <c r="O2" t="n">
-        <v>4892.012299288745</v>
+        <v>4892.012299288742</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3998.79212449002</v>
+        <v>3995.471002096464</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>30952.52893051627</v>
+        <v>31144.4413139226</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>56191.96522533072</v>
+        <v>55661.22279899548</v>
       </c>
       <c r="M2" t="n">
-        <v>15388.9961629327</v>
+        <v>15393.99435160624</v>
       </c>
       <c r="N2" t="n">
-        <v>7449.833478787734</v>
+        <v>7449.833478787733</v>
       </c>
       <c r="O2" t="n">
-        <v>8459.289075669971</v>
+        <v>8471.377716625568</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>6313.12160973443</v>
+        <v>6228.543249765059</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50465.92318872747</v>
+        <v>50348.17506991202</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>45991.05621758628</v>
+        <v>46183.13572784168</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>56191.96522533072</v>
+        <v>55661.22279899548</v>
       </c>
       <c r="M2" t="n">
-        <v>18869.3373667282</v>
+        <v>18949.69321397918</v>
       </c>
       <c r="N2" t="n">
-        <v>11987.77381092391</v>
+        <v>11974.99718757541</v>
       </c>
       <c r="O2" t="n">
-        <v>11157.28118474881</v>
+        <v>11153.02281884398</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>6313.12160973443</v>
+        <v>6228.543249765059</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50465.92318872747</v>
+        <v>50348.17506991202</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>45991.05621758628</v>
+        <v>46183.13572784168</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>56191.96522533072</v>
+        <v>55661.22279899548</v>
       </c>
       <c r="M2" t="n">
-        <v>18869.3373667282</v>
+        <v>18949.69321397918</v>
       </c>
       <c r="N2" t="n">
-        <v>12092.18250713501</v>
+        <v>12082.12109559635</v>
       </c>
       <c r="O2" t="n">
-        <v>11157.28118474881</v>
+        <v>11153.02281884398</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>6313.12160973443</v>
+        <v>6228.543249765059</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50465.92318872747</v>
+        <v>50348.17506991202</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>45991.05621758628</v>
+        <v>46183.13572784168</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>56191.96522533072</v>
+        <v>55661.22279899548</v>
       </c>
       <c r="M2" t="n">
-        <v>18869.3373667282</v>
+        <v>18949.69321397918</v>
       </c>
       <c r="N2" t="n">
-        <v>12627.69369170892</v>
+        <v>12626.84864704659</v>
       </c>
       <c r="O2" t="n">
-        <v>13492.74717109747</v>
+        <v>13488.48880519273</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>6313.12160973443</v>
+        <v>6228.543249765059</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50465.92318872747</v>
+        <v>50348.17506991202</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>45991.05621758628</v>
+        <v>46183.13572784168</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>56191.96522533072</v>
+        <v>55661.22279899548</v>
       </c>
       <c r="M2" t="n">
-        <v>18869.3373667282</v>
+        <v>18949.69321397918</v>
       </c>
       <c r="N2" t="n">
-        <v>12627.69369170892</v>
+        <v>12626.84864704659</v>
       </c>
       <c r="O2" t="n">
-        <v>13492.74717109747</v>
+        <v>13488.48880519273</v>
       </c>
     </row>
   </sheetData>
